--- a/AutomationFramework/TestData/TestData.xlsx
+++ b/AutomationFramework/TestData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonnalas\eclipse-workspace\Test3\AutomationFramework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonnalas\git\AutomationFrameworkwithJenkins\AutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7D93CD-9EE2-4B9C-B901-09442ABC390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DD2762-CEAF-4919-A507-577422AE95C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>manaswi</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>WebDriver</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Subbarao</t>
   </si>
 </sst>
 </file>
@@ -395,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,6 +429,22 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -429,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9082A4D-F146-48D9-8BAB-60E9AB6BE9AA}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
